--- a/xlsx/执行董事_intext.xlsx
+++ b/xlsx/执行董事_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>执行董事</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>政策_政策_管理_执行董事</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
+    <t>经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -65,73 +65,70 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>行政總裁</t>
+    <t>行政总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>董事總經理</t>
+    <t>董事总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>法律行為</t>
+    <t>法律行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>北美地區</t>
+    <t>北美地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非營利機構</t>
+    <t>非营利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非执行董事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -143,25 +140,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
+    <t>总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -179,31 +176,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A</t>
@@ -1070,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1096,10 +1093,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1154,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1183,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1212,10 +1209,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1241,10 +1238,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1270,10 +1267,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -1299,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1328,10 +1325,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1357,10 +1354,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1386,10 +1383,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1415,10 +1412,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1444,10 +1441,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1473,10 +1470,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1502,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1531,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1560,10 +1557,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1589,10 +1586,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1618,10 +1615,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1647,10 +1644,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1676,10 +1673,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1705,10 +1702,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1734,10 +1731,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1763,10 +1760,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1792,10 +1789,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1821,10 +1818,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1850,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1879,10 +1876,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1908,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1937,10 +1934,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1966,10 +1963,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -1995,10 +1992,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2024,10 +2021,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" t="s">
-        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2053,10 +2050,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" t="s">
-        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2082,10 +2079,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
         <v>91</v>
-      </c>
-      <c r="F50" t="s">
-        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
